--- a/AmericanLeague.xlsx
+++ b/AmericanLeague.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/DS202/DS202_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4C0300-78E8-194B-AB17-787CFF86F178}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB2AE21-F717-1B40-AA5F-12414E6A66DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DBEDEF67-F195-CB47-9C67-12DB41086FAD}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="15900" xr2:uid="{DBEDEF67-F195-CB47-9C67-12DB41086FAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>CS</t>
   </si>
   <si>
-    <t>AVG▼</t>
-  </si>
-  <si>
     <t>OBP</t>
   </si>
   <si>
@@ -319,6 +316,9 @@
   </si>
   <si>
     <t>* Smoak, J</t>
+  </si>
+  <si>
+    <t>AVG</t>
   </si>
 </sst>
 </file>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED373C34-6777-254A-B264-BAB7AD7D1EE0}">
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -745,52 +745,52 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="T1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -893,10 +893,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
       </c>
       <c r="D3">
         <v>1563</v>
@@ -988,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4">
         <v>1083</v>
@@ -1083,7 +1083,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1178,7 +1178,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1273,10 +1273,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
       </c>
       <c r="D7">
         <v>1071</v>
@@ -1368,7 +1368,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1463,10 +1463,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
       </c>
       <c r="D9">
         <v>1365</v>
@@ -1558,10 +1558,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>1038</v>
@@ -1653,10 +1653,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>1235</v>
@@ -1748,10 +1748,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
       </c>
       <c r="D12">
         <v>779</v>
@@ -1843,10 +1843,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>1048</v>
@@ -1938,10 +1938,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14">
         <v>1494</v>
@@ -2033,7 +2033,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -2128,10 +2128,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>1686</v>
@@ -2223,10 +2223,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>1495</v>
@@ -2318,10 +2318,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <v>1332</v>
@@ -2413,10 +2413,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19">
         <v>970</v>
@@ -2508,10 +2508,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>1249</v>
@@ -2603,7 +2603,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -2698,10 +2698,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
       </c>
       <c r="D22">
         <v>1575</v>
@@ -2793,10 +2793,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>1243</v>
@@ -2888,10 +2888,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>849</v>
@@ -2983,7 +2983,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -3078,7 +3078,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
@@ -3173,10 +3173,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27">
         <v>1079</v>
@@ -3268,7 +3268,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
@@ -3363,7 +3363,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -3458,10 +3458,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30">
         <v>867</v>
@@ -3553,10 +3553,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31">
         <v>1327</v>
@@ -3648,10 +3648,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
         <v>54</v>
-      </c>
-      <c r="C32" t="s">
-        <v>55</v>
       </c>
       <c r="D32">
         <v>942</v>
@@ -3743,7 +3743,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -3838,10 +3838,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34">
         <v>1313</v>
@@ -3933,10 +3933,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35">
         <v>1012</v>
@@ -4028,7 +4028,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -4123,10 +4123,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37">
         <v>1312</v>
@@ -4218,10 +4218,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38">
         <v>1022</v>
@@ -4313,10 +4313,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39">
         <v>1291</v>
@@ -4408,10 +4408,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D40">
         <v>1377</v>
@@ -4503,10 +4503,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D41">
         <v>1007</v>
@@ -4598,10 +4598,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42">
         <v>1245</v>
@@ -4693,10 +4693,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43">
         <v>1573</v>
@@ -4788,7 +4788,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
@@ -4883,10 +4883,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45">
         <v>1086</v>
@@ -4978,10 +4978,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46">
         <v>882</v>
@@ -5073,10 +5073,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D47">
         <v>1023</v>
@@ -5168,10 +5168,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D48">
         <v>1276</v>
@@ -5263,10 +5263,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D49">
         <v>1066</v>
@@ -5358,10 +5358,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D50">
         <v>1135</v>
@@ -5453,7 +5453,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
@@ -5548,10 +5548,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52">
         <v>834</v>
@@ -5643,10 +5643,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D53">
         <v>951</v>
@@ -5738,7 +5738,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -5833,10 +5833,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D55">
         <v>1392</v>
@@ -5928,10 +5928,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D56">
         <v>1042</v>
@@ -6023,10 +6023,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" t="s">
         <v>92</v>
-      </c>
-      <c r="C57" t="s">
-        <v>93</v>
       </c>
       <c r="D57">
         <v>372</v>
@@ -6118,10 +6118,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D58">
         <v>1315</v>
@@ -6213,10 +6213,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D59">
         <v>1148</v>
